--- a/docs/storedb.xlsx
+++ b/docs/storedb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="11760" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1084,6 +1084,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
